--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2492.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2492.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.403371607580457</v>
+        <v>1.278738260269165</v>
       </c>
       <c r="B1">
-        <v>3.543795709819939</v>
+        <v>1.021008729934692</v>
       </c>
       <c r="C1">
-        <v>4.664781904072988</v>
+        <v>4.255475521087646</v>
       </c>
       <c r="D1">
-        <v>3.140572463084722</v>
+        <v>2.554011106491089</v>
       </c>
       <c r="E1">
-        <v>2.480746296504079</v>
+        <v>0.7529987096786499</v>
       </c>
     </row>
   </sheetData>
